--- a/Data_frame/balancos_definitivos/CRIV3.xlsx
+++ b/Data_frame/balancos_definitivos/CRIV3.xlsx
@@ -1169,34 +1169,34 @@
         <v>6760455.168</v>
       </c>
       <c r="CH2" t="n">
-        <v>54199001.088</v>
+        <v>6386614.784</v>
       </c>
       <c r="CI2" t="n">
-        <v>58923999.232</v>
+        <v>9951832.063999999</v>
       </c>
       <c r="CJ2" t="n">
-        <v>58541998.08</v>
+        <v>8094246.912</v>
       </c>
       <c r="CK2" t="n">
-        <v>79278997.50399999</v>
+        <v>8306676.224</v>
       </c>
       <c r="CL2" t="n">
-        <v>81845002.23999999</v>
+        <v>9529014.272</v>
       </c>
       <c r="CM2" t="n">
-        <v>92294995.96799999</v>
+        <v>10995067.904</v>
       </c>
       <c r="CN2" t="n">
-        <v>87919001.59999999</v>
+        <v>11036766.208</v>
       </c>
       <c r="CO2" t="n">
-        <v>86496002.04799999</v>
+        <v>11578850.304</v>
       </c>
       <c r="CP2" t="n">
-        <v>87428997.12</v>
+        <v>11459231.744</v>
       </c>
       <c r="CQ2" t="n">
-        <v>92766003.2</v>
+        <v>13610391.552</v>
       </c>
     </row>
     <row r="3">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>26656000</v>
+        <v>0</v>
       </c>
       <c r="CI3" t="n">
-        <v>30837999.616</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>30617999.36</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>34155999.232</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>34982998.016</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>42746998.784</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>38250000.384</v>
+        <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>38001000.448</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>38487998.464</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>44643000.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1747,34 +1747,34 @@
         <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>2350000.128</v>
+        <v>0</v>
       </c>
       <c r="CI4" t="n">
-        <v>6944999.936</v>
+        <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3608000</v>
+        <v>0</v>
       </c>
       <c r="CK4" t="n">
-        <v>3656999.936</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>2352000</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>10835000.32</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>2456999.936</v>
+        <v>0</v>
       </c>
       <c r="CO4" t="n">
-        <v>6037000.192</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>3680999.936</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>12028999.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2036,34 +2036,34 @@
         <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="CI5" t="n">
-        <v>47000</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>84000</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>304000</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>228000</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>256000</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>211000</v>
+        <v>0</v>
       </c>
       <c r="CO5" t="n">
-        <v>176000</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>272000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2325,34 +2325,34 @@
         <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>13139000.32</v>
+        <v>0</v>
       </c>
       <c r="CI6" t="n">
-        <v>12336000</v>
+        <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>14581999.616</v>
+        <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>14785999.872</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>16016000</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>15607000.064</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>17809999.872</v>
+        <v>0</v>
       </c>
       <c r="CO6" t="n">
-        <v>16668999.68</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>18392999.936</v>
+        <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>17831000.064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2614,34 +2614,34 @@
         <v>0</v>
       </c>
       <c r="CH7" t="n">
-        <v>8534000.128</v>
+        <v>0</v>
       </c>
       <c r="CI7" t="n">
-        <v>8787999.744000001</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>9511999.488</v>
+        <v>0</v>
       </c>
       <c r="CK7" t="n">
-        <v>12190999.552</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>12528000</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>12293000.192</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>14204000.256</v>
+        <v>0</v>
       </c>
       <c r="CO7" t="n">
-        <v>11363000.32</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>12739000.32</v>
+        <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>11728000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3192,34 +3192,34 @@
         <v>4646413.824</v>
       </c>
       <c r="CH9" t="n">
-        <v>1222000</v>
+        <v>5567512.064</v>
       </c>
       <c r="CI9" t="n">
-        <v>1324000</v>
+        <v>5680506.88</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1476000</v>
+        <v>5770369.024</v>
       </c>
       <c r="CK9" t="n">
-        <v>1984000</v>
+        <v>5987108.864</v>
       </c>
       <c r="CL9" t="n">
-        <v>2726000.128</v>
+        <v>6278242.816</v>
       </c>
       <c r="CM9" t="n">
-        <v>2024999.936</v>
+        <v>6199867.904</v>
       </c>
       <c r="CN9" t="n">
-        <v>2075000.064</v>
+        <v>5873282.048</v>
       </c>
       <c r="CO9" t="n">
-        <v>1687000.064</v>
+        <v>5661983.232</v>
       </c>
       <c r="CP9" t="n">
-        <v>1524000</v>
+        <v>5630523.904</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1194000</v>
+        <v>5976569.856</v>
       </c>
     </row>
     <row r="10">
@@ -3490,25 +3490,25 @@
         <v>0</v>
       </c>
       <c r="CK10" t="n">
-        <v>311000</v>
+        <v>0</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>229000</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>397000</v>
+        <v>0</v>
       </c>
       <c r="CO10" t="n">
-        <v>373000</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>309000</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>220000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3770,34 +3770,34 @@
         <v>0</v>
       </c>
       <c r="CH11" t="n">
-        <v>1403000.064</v>
+        <v>0</v>
       </c>
       <c r="CI11" t="n">
-        <v>1398000</v>
+        <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>1356000</v>
+        <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>923000</v>
+        <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>1132999.936</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>1502000</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>1096000</v>
+        <v>0</v>
       </c>
       <c r="CO11" t="n">
-        <v>1696000</v>
+        <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>1572000</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>1368999.936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4059,34 +4059,34 @@
         <v>0</v>
       </c>
       <c r="CH12" t="n">
-        <v>7664999.936</v>
+        <v>0</v>
       </c>
       <c r="CI12" t="n">
-        <v>7663000.064</v>
+        <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>7406000.128</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>10225999.872</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>9461999.616</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>9404999.68</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>9946999.808</v>
+        <v>0</v>
       </c>
       <c r="CO12" t="n">
-        <v>9637999.616</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>9957999.616</v>
+        <v>0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>10049000.448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4348,34 +4348,34 @@
         <v>0</v>
       </c>
       <c r="CH13" t="n">
-        <v>360000</v>
+        <v>0</v>
       </c>
       <c r="CI13" t="n">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>427000</v>
+        <v>0</v>
       </c>
       <c r="CK13" t="n">
-        <v>353000</v>
+        <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>580000</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>578000</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>650000</v>
+        <v>0</v>
       </c>
       <c r="CO13" t="n">
-        <v>713000</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>649000</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>673000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5215,34 +5215,34 @@
         <v>0</v>
       </c>
       <c r="CH16" t="n">
-        <v>470000</v>
+        <v>0</v>
       </c>
       <c r="CI16" t="n">
-        <v>494000</v>
+        <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>511000</v>
+        <v>0</v>
       </c>
       <c r="CK16" t="n">
-        <v>580000</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>646000</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>761000</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>804000</v>
+        <v>0</v>
       </c>
       <c r="CO16" t="n">
-        <v>856000</v>
+        <v>0</v>
       </c>
       <c r="CP16" t="n">
-        <v>915000</v>
+        <v>0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>1013000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>0</v>
       </c>
       <c r="CH17" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="CI17" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="CK17" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="CL17" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="CM17" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="CO17" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="CP17" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="CQ17" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -6082,34 +6082,34 @@
         <v>0</v>
       </c>
       <c r="CH19" t="n">
-        <v>3761999.872</v>
+        <v>0</v>
       </c>
       <c r="CI19" t="n">
-        <v>3552000</v>
+        <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>3260999.936</v>
+        <v>0</v>
       </c>
       <c r="CK19" t="n">
-        <v>5530999.808</v>
+        <v>0</v>
       </c>
       <c r="CL19" t="n">
-        <v>4329999.872</v>
+        <v>0</v>
       </c>
       <c r="CM19" t="n">
-        <v>4618999.808</v>
+        <v>0</v>
       </c>
       <c r="CN19" t="n">
-        <v>4465999.872</v>
+        <v>0</v>
       </c>
       <c r="CO19" t="n">
-        <v>4673999.872</v>
+        <v>0</v>
       </c>
       <c r="CP19" t="n">
-        <v>4934000.128</v>
+        <v>0</v>
       </c>
       <c r="CQ19" t="n">
-        <v>4871000.064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="CK20" t="n">
-        <v>69000</v>
+        <v>0</v>
       </c>
       <c r="CL20" t="n">
         <v>0</v>
@@ -6949,34 +6949,34 @@
         <v>0</v>
       </c>
       <c r="CH22" t="n">
-        <v>651000</v>
+        <v>0</v>
       </c>
       <c r="CI22" t="n">
-        <v>664000</v>
+        <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>668000</v>
+        <v>0</v>
       </c>
       <c r="CK22" t="n">
-        <v>601000</v>
+        <v>0</v>
       </c>
       <c r="CL22" t="n">
-        <v>596000</v>
+        <v>0</v>
       </c>
       <c r="CM22" t="n">
-        <v>634000</v>
+        <v>0</v>
       </c>
       <c r="CN22" t="n">
-        <v>631000</v>
+        <v>0</v>
       </c>
       <c r="CO22" t="n">
-        <v>628000</v>
+        <v>0</v>
       </c>
       <c r="CP22" t="n">
-        <v>624000</v>
+        <v>0</v>
       </c>
       <c r="CQ22" t="n">
-        <v>620000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -7238,34 +7238,34 @@
         <v>0</v>
       </c>
       <c r="CH23" t="n">
-        <v>16903999.488</v>
+        <v>0</v>
       </c>
       <c r="CI23" t="n">
-        <v>17417000.96</v>
+        <v>0</v>
       </c>
       <c r="CJ23" t="n">
-        <v>17511000.064</v>
+        <v>0</v>
       </c>
       <c r="CK23" t="n">
-        <v>28964999.168</v>
+        <v>0</v>
       </c>
       <c r="CL23" t="n">
-        <v>31732000.768</v>
+        <v>0</v>
       </c>
       <c r="CM23" t="n">
-        <v>31793999.872</v>
+        <v>0</v>
       </c>
       <c r="CN23" t="n">
-        <v>32027000.832</v>
+        <v>0</v>
       </c>
       <c r="CO23" t="n">
-        <v>31246999.552</v>
+        <v>0</v>
       </c>
       <c r="CP23" t="n">
-        <v>31353999.36</v>
+        <v>0</v>
       </c>
       <c r="CQ23" t="n">
-        <v>30599000.064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -7527,34 +7527,34 @@
         <v>0</v>
       </c>
       <c r="CH24" t="n">
-        <v>2323000.064</v>
+        <v>0</v>
       </c>
       <c r="CI24" t="n">
-        <v>2342000.128</v>
+        <v>0</v>
       </c>
       <c r="CJ24" t="n">
-        <v>2339000.064</v>
+        <v>0</v>
       </c>
       <c r="CK24" t="n">
-        <v>5330999.808</v>
+        <v>0</v>
       </c>
       <c r="CL24" t="n">
-        <v>5072000</v>
+        <v>0</v>
       </c>
       <c r="CM24" t="n">
-        <v>7714999.808</v>
+        <v>0</v>
       </c>
       <c r="CN24" t="n">
-        <v>7064000</v>
+        <v>0</v>
       </c>
       <c r="CO24" t="n">
-        <v>6982000.128</v>
+        <v>0</v>
       </c>
       <c r="CP24" t="n">
-        <v>7005000.192</v>
+        <v>0</v>
       </c>
       <c r="CQ24" t="n">
-        <v>6855000.064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -8105,34 +8105,34 @@
         <v>0</v>
       </c>
       <c r="CH26" t="n">
-        <v>54199001.088</v>
+        <v>0</v>
       </c>
       <c r="CI26" t="n">
-        <v>58923999.232</v>
+        <v>0</v>
       </c>
       <c r="CJ26" t="n">
-        <v>58541998.08</v>
+        <v>0</v>
       </c>
       <c r="CK26" t="n">
-        <v>79278997.50399999</v>
+        <v>0</v>
       </c>
       <c r="CL26" t="n">
-        <v>81845002.23999999</v>
+        <v>0</v>
       </c>
       <c r="CM26" t="n">
-        <v>92294995.96799999</v>
+        <v>0</v>
       </c>
       <c r="CN26" t="n">
-        <v>87919001.59999999</v>
+        <v>0</v>
       </c>
       <c r="CO26" t="n">
-        <v>86496002.04799999</v>
+        <v>0</v>
       </c>
       <c r="CP26" t="n">
-        <v>87428997.12</v>
+        <v>0</v>
       </c>
       <c r="CQ26" t="n">
-        <v>92766003.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -8394,34 +8394,34 @@
         <v>0</v>
       </c>
       <c r="CH27" t="n">
-        <v>24711999.488</v>
+        <v>0</v>
       </c>
       <c r="CI27" t="n">
-        <v>29076000.768</v>
+        <v>0</v>
       </c>
       <c r="CJ27" t="n">
-        <v>24693999.616</v>
+        <v>0</v>
       </c>
       <c r="CK27" t="n">
-        <v>36987998.208</v>
+        <v>0</v>
       </c>
       <c r="CL27" t="n">
-        <v>36968001.536</v>
+        <v>0</v>
       </c>
       <c r="CM27" t="n">
-        <v>46725001.216</v>
+        <v>0</v>
       </c>
       <c r="CN27" t="n">
-        <v>42289999.872</v>
+        <v>0</v>
       </c>
       <c r="CO27" t="n">
-        <v>39708000.256</v>
+        <v>0</v>
       </c>
       <c r="CP27" t="n">
-        <v>42384998.4</v>
+        <v>0</v>
       </c>
       <c r="CQ27" t="n">
-        <v>47431000.064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -8683,34 +8683,34 @@
         <v>0</v>
       </c>
       <c r="CH28" t="n">
-        <v>887000</v>
+        <v>0</v>
       </c>
       <c r="CI28" t="n">
-        <v>825000</v>
+        <v>0</v>
       </c>
       <c r="CJ28" t="n">
-        <v>891000</v>
+        <v>0</v>
       </c>
       <c r="CK28" t="n">
-        <v>1246000</v>
+        <v>0</v>
       </c>
       <c r="CL28" t="n">
-        <v>1414000</v>
+        <v>0</v>
       </c>
       <c r="CM28" t="n">
-        <v>1336999.936</v>
+        <v>0</v>
       </c>
       <c r="CN28" t="n">
-        <v>1391000.064</v>
+        <v>0</v>
       </c>
       <c r="CO28" t="n">
-        <v>1310000</v>
+        <v>0</v>
       </c>
       <c r="CP28" t="n">
-        <v>1504000</v>
+        <v>0</v>
       </c>
       <c r="CQ28" t="n">
-        <v>1327000.064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -8972,34 +8972,34 @@
         <v>0</v>
       </c>
       <c r="CH29" t="n">
-        <v>9203999.744000001</v>
+        <v>0</v>
       </c>
       <c r="CI29" t="n">
-        <v>15448999.936</v>
+        <v>0</v>
       </c>
       <c r="CJ29" t="n">
-        <v>11392000</v>
+        <v>0</v>
       </c>
       <c r="CK29" t="n">
-        <v>14380999.68</v>
+        <v>0</v>
       </c>
       <c r="CL29" t="n">
-        <v>12593000.448</v>
+        <v>0</v>
       </c>
       <c r="CM29" t="n">
-        <v>20640999.424</v>
+        <v>0</v>
       </c>
       <c r="CN29" t="n">
-        <v>15434999.808</v>
+        <v>0</v>
       </c>
       <c r="CO29" t="n">
-        <v>13242999.808</v>
+        <v>0</v>
       </c>
       <c r="CP29" t="n">
-        <v>15232000</v>
+        <v>0</v>
       </c>
       <c r="CQ29" t="n">
-        <v>20057999.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -9261,34 +9261,34 @@
         <v>0</v>
       </c>
       <c r="CH30" t="n">
-        <v>705000</v>
+        <v>0</v>
       </c>
       <c r="CI30" t="n">
-        <v>639000</v>
+        <v>0</v>
       </c>
       <c r="CJ30" t="n">
-        <v>420000</v>
+        <v>0</v>
       </c>
       <c r="CK30" t="n">
-        <v>559000</v>
+        <v>0</v>
       </c>
       <c r="CL30" t="n">
-        <v>545000</v>
+        <v>0</v>
       </c>
       <c r="CM30" t="n">
-        <v>690000</v>
+        <v>0</v>
       </c>
       <c r="CN30" t="n">
-        <v>549000</v>
+        <v>0</v>
       </c>
       <c r="CO30" t="n">
-        <v>719000</v>
+        <v>0</v>
       </c>
       <c r="CP30" t="n">
-        <v>733000</v>
+        <v>0</v>
       </c>
       <c r="CQ30" t="n">
-        <v>742000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -9550,34 +9550,34 @@
         <v>0</v>
       </c>
       <c r="CH31" t="n">
-        <v>6184000</v>
+        <v>0</v>
       </c>
       <c r="CI31" t="n">
-        <v>3180000</v>
+        <v>0</v>
       </c>
       <c r="CJ31" t="n">
-        <v>3736999.936</v>
+        <v>0</v>
       </c>
       <c r="CK31" t="n">
-        <v>10773000.192</v>
+        <v>0</v>
       </c>
       <c r="CL31" t="n">
-        <v>12471000.064</v>
+        <v>0</v>
       </c>
       <c r="CM31" t="n">
-        <v>11249999.872</v>
+        <v>0</v>
       </c>
       <c r="CN31" t="n">
-        <v>13308999.68</v>
+        <v>0</v>
       </c>
       <c r="CO31" t="n">
-        <v>11957000.192</v>
+        <v>0</v>
       </c>
       <c r="CP31" t="n">
-        <v>12675000.32</v>
+        <v>0</v>
       </c>
       <c r="CQ31" t="n">
-        <v>11617000.448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -10137,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="CK33" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="CL33" t="n">
         <v>0</v>
@@ -10417,34 +10417,34 @@
         <v>0</v>
       </c>
       <c r="CH34" t="n">
-        <v>7731999.744</v>
+        <v>0</v>
       </c>
       <c r="CI34" t="n">
-        <v>8983000.063999999</v>
+        <v>0</v>
       </c>
       <c r="CJ34" t="n">
-        <v>8254000.128</v>
+        <v>0</v>
       </c>
       <c r="CK34" t="n">
-        <v>10025999.68</v>
+        <v>0</v>
       </c>
       <c r="CL34" t="n">
-        <v>9944999.936000001</v>
+        <v>0</v>
       </c>
       <c r="CM34" t="n">
-        <v>12807000.064</v>
+        <v>0</v>
       </c>
       <c r="CN34" t="n">
-        <v>11605999.616</v>
+        <v>0</v>
       </c>
       <c r="CO34" t="n">
-        <v>12478999.552</v>
+        <v>0</v>
       </c>
       <c r="CP34" t="n">
-        <v>12165999.616</v>
+        <v>0</v>
       </c>
       <c r="CQ34" t="n">
-        <v>13687000.064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -11019,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="CP36" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="CQ36" t="n">
         <v>0</v>
@@ -11284,34 +11284,34 @@
         <v>0</v>
       </c>
       <c r="CH37" t="n">
-        <v>11187999.744</v>
+        <v>0</v>
       </c>
       <c r="CI37" t="n">
-        <v>11452000.256</v>
+        <v>0</v>
       </c>
       <c r="CJ37" t="n">
-        <v>15054999.552</v>
+        <v>0</v>
       </c>
       <c r="CK37" t="n">
-        <v>20867000.32</v>
+        <v>0</v>
       </c>
       <c r="CL37" t="n">
-        <v>23421999.104</v>
+        <v>0</v>
       </c>
       <c r="CM37" t="n">
-        <v>23797999.616</v>
+        <v>0</v>
       </c>
       <c r="CN37" t="n">
-        <v>23964000.256</v>
+        <v>0</v>
       </c>
       <c r="CO37" t="n">
-        <v>25663000.576</v>
+        <v>0</v>
       </c>
       <c r="CP37" t="n">
-        <v>23707000.832</v>
+        <v>0</v>
       </c>
       <c r="CQ37" t="n">
-        <v>24508000.256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -11573,34 +11573,34 @@
         <v>0</v>
       </c>
       <c r="CH38" t="n">
-        <v>5896999.936</v>
+        <v>0</v>
       </c>
       <c r="CI38" t="n">
-        <v>5849999.872</v>
+        <v>0</v>
       </c>
       <c r="CJ38" t="n">
-        <v>7957000.192</v>
+        <v>0</v>
       </c>
       <c r="CK38" t="n">
-        <v>7016999.936</v>
+        <v>0</v>
       </c>
       <c r="CL38" t="n">
-        <v>8259999.744</v>
+        <v>0</v>
       </c>
       <c r="CM38" t="n">
-        <v>7821000.192</v>
+        <v>0</v>
       </c>
       <c r="CN38" t="n">
-        <v>7719000.064</v>
+        <v>0</v>
       </c>
       <c r="CO38" t="n">
-        <v>9477000.192</v>
+        <v>0</v>
       </c>
       <c r="CP38" t="n">
-        <v>8097999.872</v>
+        <v>0</v>
       </c>
       <c r="CQ38" t="n">
-        <v>9511999.488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -12151,34 +12151,34 @@
         <v>0</v>
       </c>
       <c r="CH40" t="n">
-        <v>902000</v>
+        <v>0</v>
       </c>
       <c r="CI40" t="n">
-        <v>1291000.064</v>
+        <v>0</v>
       </c>
       <c r="CJ40" t="n">
-        <v>2761999.872</v>
+        <v>0</v>
       </c>
       <c r="CK40" t="n">
-        <v>2008999.936</v>
+        <v>0</v>
       </c>
       <c r="CL40" t="n">
-        <v>1938000</v>
+        <v>0</v>
       </c>
       <c r="CM40" t="n">
-        <v>1731000.064</v>
+        <v>0</v>
       </c>
       <c r="CN40" t="n">
-        <v>2032000</v>
+        <v>0</v>
       </c>
       <c r="CO40" t="n">
-        <v>2056999.936</v>
+        <v>0</v>
       </c>
       <c r="CP40" t="n">
-        <v>1967000.064</v>
+        <v>0</v>
       </c>
       <c r="CQ40" t="n">
-        <v>1776000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -12440,34 +12440,34 @@
         <v>0</v>
       </c>
       <c r="CH41" t="n">
-        <v>414000</v>
+        <v>0</v>
       </c>
       <c r="CI41" t="n">
-        <v>439000</v>
+        <v>0</v>
       </c>
       <c r="CJ41" t="n">
-        <v>391000</v>
+        <v>0</v>
       </c>
       <c r="CK41" t="n">
-        <v>505000</v>
+        <v>0</v>
       </c>
       <c r="CL41" t="n">
-        <v>894000</v>
+        <v>0</v>
       </c>
       <c r="CM41" t="n">
-        <v>544000</v>
+        <v>0</v>
       </c>
       <c r="CN41" t="n">
-        <v>584000</v>
+        <v>0</v>
       </c>
       <c r="CO41" t="n">
-        <v>745000</v>
+        <v>0</v>
       </c>
       <c r="CP41" t="n">
-        <v>696000</v>
+        <v>0</v>
       </c>
       <c r="CQ41" t="n">
-        <v>591000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -13018,34 +13018,34 @@
         <v>0</v>
       </c>
       <c r="CH43" t="n">
-        <v>3975000.064</v>
+        <v>0</v>
       </c>
       <c r="CI43" t="n">
-        <v>3872000</v>
+        <v>0</v>
       </c>
       <c r="CJ43" t="n">
-        <v>3944999.936</v>
+        <v>0</v>
       </c>
       <c r="CK43" t="n">
-        <v>11335999.488</v>
+        <v>0</v>
       </c>
       <c r="CL43" t="n">
-        <v>12330000.384</v>
+        <v>0</v>
       </c>
       <c r="CM43" t="n">
-        <v>13701999.616</v>
+        <v>0</v>
       </c>
       <c r="CN43" t="n">
-        <v>13628999.68</v>
+        <v>0</v>
       </c>
       <c r="CO43" t="n">
-        <v>13383999.488</v>
+        <v>0</v>
       </c>
       <c r="CP43" t="n">
-        <v>12945999.872</v>
+        <v>0</v>
       </c>
       <c r="CQ43" t="n">
-        <v>12629000.192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -13885,34 +13885,34 @@
         <v>0</v>
       </c>
       <c r="CH46" t="n">
-        <v>1374000</v>
+        <v>0</v>
       </c>
       <c r="CI46" t="n">
-        <v>1316999.936</v>
+        <v>0</v>
       </c>
       <c r="CJ46" t="n">
-        <v>1352999.936</v>
+        <v>0</v>
       </c>
       <c r="CK46" t="n">
-        <v>1488000</v>
+        <v>0</v>
       </c>
       <c r="CL46" t="n">
-        <v>1460999.936</v>
+        <v>0</v>
       </c>
       <c r="CM46" t="n">
-        <v>1502000</v>
+        <v>0</v>
       </c>
       <c r="CN46" t="n">
-        <v>1503000.064</v>
+        <v>0</v>
       </c>
       <c r="CO46" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="CP46" t="n">
-        <v>1562000</v>
+        <v>0</v>
       </c>
       <c r="CQ46" t="n">
-        <v>1608999.936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -14174,34 +14174,34 @@
         <v>0</v>
       </c>
       <c r="CH47" t="n">
-        <v>16925000.832</v>
+        <v>0</v>
       </c>
       <c r="CI47" t="n">
-        <v>17079000.32</v>
+        <v>0</v>
       </c>
       <c r="CJ47" t="n">
-        <v>17440001.024</v>
+        <v>0</v>
       </c>
       <c r="CK47" t="n">
-        <v>19936001.024</v>
+        <v>0</v>
       </c>
       <c r="CL47" t="n">
-        <v>19993999.616</v>
+        <v>0</v>
       </c>
       <c r="CM47" t="n">
-        <v>20269999.232</v>
+        <v>0</v>
       </c>
       <c r="CN47" t="n">
-        <v>20161999.36</v>
+        <v>0</v>
       </c>
       <c r="CO47" t="n">
-        <v>19624999.168</v>
+        <v>0</v>
       </c>
       <c r="CP47" t="n">
-        <v>19774999.936</v>
+        <v>0</v>
       </c>
       <c r="CQ47" t="n">
-        <v>19218000.896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -14463,34 +14463,34 @@
         <v>0</v>
       </c>
       <c r="CH48" t="n">
-        <v>7650999.808</v>
+        <v>0</v>
       </c>
       <c r="CI48" t="n">
-        <v>7650999.808</v>
+        <v>0</v>
       </c>
       <c r="CJ48" t="n">
-        <v>7660000.256</v>
+        <v>0</v>
       </c>
       <c r="CK48" t="n">
-        <v>9911000.063999999</v>
+        <v>0</v>
       </c>
       <c r="CL48" t="n">
-        <v>9918000.128</v>
+        <v>0</v>
       </c>
       <c r="CM48" t="n">
-        <v>9918000.128</v>
+        <v>0</v>
       </c>
       <c r="CN48" t="n">
-        <v>9930999.808</v>
+        <v>0</v>
       </c>
       <c r="CO48" t="n">
-        <v>9959999.488</v>
+        <v>0</v>
       </c>
       <c r="CP48" t="n">
-        <v>9959999.488</v>
+        <v>0</v>
       </c>
       <c r="CQ48" t="n">
-        <v>9959999.488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -14752,34 +14752,34 @@
         <v>0</v>
       </c>
       <c r="CH49" t="n">
-        <v>1924000</v>
+        <v>0</v>
       </c>
       <c r="CI49" t="n">
-        <v>1931000.064</v>
+        <v>0</v>
       </c>
       <c r="CJ49" t="n">
-        <v>1936999.936</v>
+        <v>0</v>
       </c>
       <c r="CK49" t="n">
-        <v>1854000</v>
+        <v>0</v>
       </c>
       <c r="CL49" t="n">
-        <v>1850000</v>
+        <v>0</v>
       </c>
       <c r="CM49" t="n">
-        <v>1858000</v>
+        <v>0</v>
       </c>
       <c r="CN49" t="n">
-        <v>1864000</v>
+        <v>0</v>
       </c>
       <c r="CO49" t="n">
-        <v>1864999.936</v>
+        <v>0</v>
       </c>
       <c r="CP49" t="n">
-        <v>1868999.936</v>
+        <v>0</v>
       </c>
       <c r="CQ49" t="n">
-        <v>1872000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -15330,34 +15330,34 @@
         <v>1000116.992</v>
       </c>
       <c r="CH51" t="n">
-        <v>5208999.936</v>
+        <v>1023020.032</v>
       </c>
       <c r="CI51" t="n">
-        <v>7487000.064</v>
+        <v>1036692.992</v>
       </c>
       <c r="CJ51" t="n">
-        <v>7487000.064</v>
+        <v>1050756.992</v>
       </c>
       <c r="CK51" t="n">
-        <v>7184000</v>
+        <v>1054150.976</v>
       </c>
       <c r="CL51" t="n">
-        <v>6917000.192</v>
+        <v>1057518.016</v>
       </c>
       <c r="CM51" t="n">
-        <v>8499999.744000001</v>
+        <v>1061771.008</v>
       </c>
       <c r="CN51" t="n">
-        <v>8499999.744000001</v>
+        <v>1063948.032</v>
       </c>
       <c r="CO51" t="n">
-        <v>8189000.192</v>
+        <v>1059148.992</v>
       </c>
       <c r="CP51" t="n">
-        <v>8189000.192</v>
+        <v>1071424</v>
       </c>
       <c r="CQ51" t="n">
-        <v>7393999.872</v>
+        <v>1058745.024</v>
       </c>
     </row>
     <row r="52">
@@ -15619,31 +15619,31 @@
         <v>0</v>
       </c>
       <c r="CH52" t="n">
-        <v>2127000.064</v>
+        <v>0</v>
       </c>
       <c r="CI52" t="n">
         <v>0</v>
       </c>
       <c r="CJ52" t="n">
-        <v>370000</v>
+        <v>0</v>
       </c>
       <c r="CK52" t="n">
-        <v>990000</v>
+        <v>0</v>
       </c>
       <c r="CL52" t="n">
-        <v>1312999.936</v>
+        <v>0</v>
       </c>
       <c r="CM52" t="n">
         <v>0</v>
       </c>
       <c r="CN52" t="n">
-        <v>-113000</v>
+        <v>0</v>
       </c>
       <c r="CO52" t="n">
-        <v>-362000</v>
+        <v>0</v>
       </c>
       <c r="CP52" t="n">
-        <v>-230000</v>
+        <v>0</v>
       </c>
       <c r="CQ52" t="n">
         <v>0</v>
@@ -15908,34 +15908,34 @@
         <v>0</v>
       </c>
       <c r="CH53" t="n">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="CI53" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="CJ53" t="n">
-        <v>-14000</v>
+        <v>0</v>
       </c>
       <c r="CK53" t="n">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="CL53" t="n">
-        <v>-4000</v>
+        <v>0</v>
       </c>
       <c r="CM53" t="n">
-        <v>-6000</v>
+        <v>0</v>
       </c>
       <c r="CN53" t="n">
-        <v>-20000</v>
+        <v>0</v>
       </c>
       <c r="CO53" t="n">
-        <v>-27000</v>
+        <v>0</v>
       </c>
       <c r="CP53" t="n">
-        <v>-13000</v>
+        <v>0</v>
       </c>
       <c r="CQ53" t="n">
-        <v>-8000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -17063,16 +17063,36 @@
       <c r="CG57" t="n">
         <v>0</v>
       </c>
-      <c r="CH57" t="inlineStr"/>
-      <c r="CI57" t="inlineStr"/>
-      <c r="CJ57" t="inlineStr"/>
-      <c r="CK57" t="inlineStr"/>
-      <c r="CL57" t="inlineStr"/>
-      <c r="CM57" t="inlineStr"/>
-      <c r="CN57" t="inlineStr"/>
-      <c r="CO57" t="inlineStr"/>
-      <c r="CP57" t="inlineStr"/>
-      <c r="CQ57" t="inlineStr"/>
+      <c r="CH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -17332,16 +17352,36 @@
       <c r="CG58" t="n">
         <v>127125</v>
       </c>
-      <c r="CH58" t="inlineStr"/>
-      <c r="CI58" t="inlineStr"/>
-      <c r="CJ58" t="inlineStr"/>
-      <c r="CK58" t="inlineStr"/>
-      <c r="CL58" t="inlineStr"/>
-      <c r="CM58" t="inlineStr"/>
-      <c r="CN58" t="inlineStr"/>
-      <c r="CO58" t="inlineStr"/>
-      <c r="CP58" t="inlineStr"/>
-      <c r="CQ58" t="inlineStr"/>
+      <c r="CH58" t="n">
+        <v>169527.008</v>
+      </c>
+      <c r="CI58" t="n">
+        <v>238645.024</v>
+      </c>
+      <c r="CJ58" t="n">
+        <v>266356.992</v>
+      </c>
+      <c r="CK58" t="n">
+        <v>287337.984</v>
+      </c>
+      <c r="CL58" t="n">
+        <v>334596</v>
+      </c>
+      <c r="CM58" t="n">
+        <v>389343.072</v>
+      </c>
+      <c r="CN58" t="n">
+        <v>412739.008</v>
+      </c>
+      <c r="CO58" t="n">
+        <v>420315.008</v>
+      </c>
+      <c r="CP58" t="n">
+        <v>435727.008</v>
+      </c>
+      <c r="CQ58" t="n">
+        <v>436861.984</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -17602,34 +17642,34 @@
         <v>-49073</v>
       </c>
       <c r="CH59" t="n">
-        <v>19855998.976</v>
+        <v>-68483</v>
       </c>
       <c r="CI59" t="n">
-        <v>21864001.536</v>
+        <v>-143498</v>
       </c>
       <c r="CJ59" t="n">
-        <v>20014999.552</v>
+        <v>-174070</v>
       </c>
       <c r="CK59" t="n">
-        <v>25279000.576</v>
+        <v>-205659.008</v>
       </c>
       <c r="CL59" t="n">
-        <v>27744000</v>
+        <v>-256270</v>
       </c>
       <c r="CM59" t="n">
-        <v>29851996.16</v>
+        <v>-289071.968</v>
       </c>
       <c r="CN59" t="n">
-        <v>25792999.424</v>
+        <v>-334456.992</v>
       </c>
       <c r="CO59" t="n">
-        <v>27466000.384</v>
+        <v>-344216.992</v>
       </c>
       <c r="CP59" t="n">
-        <v>26986000.384</v>
+        <v>-356207.008</v>
       </c>
       <c r="CQ59" t="n">
-        <v>29613996.032</v>
+        <v>-384064.032</v>
       </c>
     </row>
     <row r="60">
@@ -17891,34 +17931,34 @@
         <v>78052</v>
       </c>
       <c r="CH60" t="n">
-        <v>-16090999.808</v>
+        <v>101044</v>
       </c>
       <c r="CI60" t="n">
-        <v>-17602000.896</v>
+        <v>95147</v>
       </c>
       <c r="CJ60" t="n">
-        <v>-16291999.744</v>
+        <v>92287</v>
       </c>
       <c r="CK60" t="n">
-        <v>-20711000.064</v>
+        <v>81679</v>
       </c>
       <c r="CL60" t="n">
-        <v>-22498000.896</v>
+        <v>78326</v>
       </c>
       <c r="CM60" t="n">
-        <v>-23740000.256</v>
+        <v>100271.008</v>
       </c>
       <c r="CN60" t="n">
-        <v>-20988999.68</v>
+        <v>78282</v>
       </c>
       <c r="CO60" t="n">
-        <v>-22353999.872</v>
+        <v>76098</v>
       </c>
       <c r="CP60" t="n">
-        <v>-21866000.384</v>
+        <v>79520</v>
       </c>
       <c r="CQ60" t="n">
-        <v>-23989002.24</v>
+        <v>52797.984</v>
       </c>
     </row>
     <row r="61">
@@ -18173,36 +18213,16 @@
         <v>-58061</v>
       </c>
       <c r="CG61" t="inlineStr"/>
-      <c r="CH61" t="n">
-        <v>3764999.936</v>
-      </c>
-      <c r="CI61" t="n">
-        <v>4262000.128</v>
-      </c>
-      <c r="CJ61" t="n">
-        <v>3723000.064</v>
-      </c>
-      <c r="CK61" t="n">
-        <v>4568000</v>
-      </c>
-      <c r="CL61" t="n">
-        <v>5246000.128</v>
-      </c>
-      <c r="CM61" t="n">
-        <v>6111998.976</v>
-      </c>
-      <c r="CN61" t="n">
-        <v>4803999.744</v>
-      </c>
-      <c r="CO61" t="n">
-        <v>5112000</v>
-      </c>
-      <c r="CP61" t="n">
-        <v>5120000</v>
-      </c>
-      <c r="CQ61" t="n">
-        <v>5625000.448</v>
-      </c>
+      <c r="CH61" t="inlineStr"/>
+      <c r="CI61" t="inlineStr"/>
+      <c r="CJ61" t="inlineStr"/>
+      <c r="CK61" t="inlineStr"/>
+      <c r="CL61" t="inlineStr"/>
+      <c r="CM61" t="inlineStr"/>
+      <c r="CN61" t="inlineStr"/>
+      <c r="CO61" t="inlineStr"/>
+      <c r="CP61" t="inlineStr"/>
+      <c r="CQ61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -18463,34 +18483,34 @@
         <v>15415</v>
       </c>
       <c r="CH62" t="n">
-        <v>0</v>
+        <v>16018</v>
       </c>
       <c r="CI62" t="n">
-        <v>0</v>
+        <v>11563</v>
       </c>
       <c r="CJ62" t="n">
-        <v>0</v>
+        <v>12399</v>
       </c>
       <c r="CK62" t="n">
-        <v>0</v>
+        <v>16775</v>
       </c>
       <c r="CL62" t="n">
-        <v>0</v>
+        <v>17528</v>
       </c>
       <c r="CM62" t="n">
-        <v>0</v>
+        <v>12719</v>
       </c>
       <c r="CN62" t="n">
-        <v>0</v>
+        <v>8951</v>
       </c>
       <c r="CO62" t="n">
-        <v>0</v>
+        <v>11093</v>
       </c>
       <c r="CP62" t="n">
-        <v>0</v>
+        <v>15723</v>
       </c>
       <c r="CQ62" t="n">
-        <v>0</v>
+        <v>18247</v>
       </c>
     </row>
     <row r="63">
@@ -18752,34 +18772,34 @@
         <v>-36330</v>
       </c>
       <c r="CH63" t="n">
-        <v>-2598000.128</v>
+        <v>-37352</v>
       </c>
       <c r="CI63" t="n">
-        <v>-3341999.872</v>
+        <v>-36438.992</v>
       </c>
       <c r="CJ63" t="n">
-        <v>-2867000.064</v>
+        <v>-35027</v>
       </c>
       <c r="CK63" t="n">
-        <v>-3254000.128</v>
+        <v>-39819</v>
       </c>
       <c r="CL63" t="n">
-        <v>-4048000</v>
+        <v>-39199</v>
       </c>
       <c r="CM63" t="n">
-        <v>-4581000.192</v>
+        <v>-39229</v>
       </c>
       <c r="CN63" t="n">
-        <v>-3928000</v>
+        <v>-36314</v>
       </c>
       <c r="CO63" t="n">
-        <v>-4248999.936</v>
+        <v>-37560</v>
       </c>
       <c r="CP63" t="n">
-        <v>-4193999.872</v>
+        <v>-37460</v>
       </c>
       <c r="CQ63" t="n">
-        <v>-4574000.64</v>
+        <v>-36236</v>
       </c>
     </row>
     <row r="64">
@@ -19041,34 +19061,34 @@
         <v>-18185</v>
       </c>
       <c r="CH64" t="n">
-        <v>0</v>
+        <v>-19443</v>
       </c>
       <c r="CI64" t="n">
-        <v>0</v>
+        <v>-22129</v>
       </c>
       <c r="CJ64" t="n">
-        <v>0</v>
+        <v>-18865</v>
       </c>
       <c r="CK64" t="n">
-        <v>0</v>
+        <v>-22692</v>
       </c>
       <c r="CL64" t="n">
-        <v>0</v>
+        <v>-23212</v>
       </c>
       <c r="CM64" t="n">
-        <v>0</v>
+        <v>-23957</v>
       </c>
       <c r="CN64" t="n">
-        <v>0</v>
+        <v>-22528</v>
       </c>
       <c r="CO64" t="n">
-        <v>0</v>
+        <v>-21297</v>
       </c>
       <c r="CP64" t="n">
-        <v>0</v>
+        <v>-24212</v>
       </c>
       <c r="CQ64" t="n">
-        <v>0</v>
+        <v>-23656</v>
       </c>
     </row>
     <row r="65">
@@ -19330,34 +19350,34 @@
         <v>-4896</v>
       </c>
       <c r="CH65" t="n">
-        <v>1000</v>
+        <v>-6138</v>
       </c>
       <c r="CI65" t="n">
-        <v>671000</v>
+        <v>-6213</v>
       </c>
       <c r="CJ65" t="n">
-        <v>0</v>
+        <v>-6082</v>
       </c>
       <c r="CK65" t="n">
-        <v>0</v>
+        <v>-6008</v>
       </c>
       <c r="CL65" t="n">
-        <v>80000</v>
+        <v>-5531</v>
       </c>
       <c r="CM65" t="n">
-        <v>-44000</v>
+        <v>-6613</v>
       </c>
       <c r="CN65" t="n">
-        <v>0</v>
+        <v>-5268</v>
       </c>
       <c r="CO65" t="n">
-        <v>0</v>
+        <v>-5507</v>
       </c>
       <c r="CP65" t="n">
-        <v>0</v>
+        <v>-6136</v>
       </c>
       <c r="CQ65" t="n">
-        <v>0</v>
+        <v>-6111</v>
       </c>
     </row>
     <row r="66">
@@ -19619,34 +19639,34 @@
         <v>575</v>
       </c>
       <c r="CH66" t="n">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="CI66" t="n">
-        <v>0</v>
+        <v>3857</v>
       </c>
       <c r="CJ66" t="n">
-        <v>0</v>
+        <v>1281</v>
       </c>
       <c r="CK66" t="n">
-        <v>0</v>
+        <v>1451</v>
       </c>
       <c r="CL66" t="n">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="CM66" t="n">
-        <v>0</v>
+        <v>1349</v>
       </c>
       <c r="CN66" t="n">
-        <v>0</v>
+        <v>2288</v>
       </c>
       <c r="CO66" t="n">
-        <v>-92000</v>
+        <v>890</v>
       </c>
       <c r="CP66" t="n">
-        <v>-12000</v>
+        <v>2277</v>
       </c>
       <c r="CQ66" t="n">
-        <v>-766000</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="67">
@@ -19908,34 +19928,34 @@
         <v>-14207</v>
       </c>
       <c r="CH67" t="n">
-        <v>-1000</v>
+        <v>-17239</v>
       </c>
       <c r="CI67" t="n">
-        <v>14000</v>
+        <v>-12215</v>
       </c>
       <c r="CJ67" t="n">
-        <v>-1000</v>
+        <v>-25158</v>
       </c>
       <c r="CK67" t="n">
-        <v>0</v>
+        <v>-10575</v>
       </c>
       <c r="CL67" t="n">
-        <v>-1000</v>
+        <v>-15919</v>
       </c>
       <c r="CM67" t="n">
-        <v>0</v>
+        <v>-24479</v>
       </c>
       <c r="CN67" t="n">
-        <v>0</v>
+        <v>-17436</v>
       </c>
       <c r="CO67" t="n">
-        <v>-2000</v>
+        <v>-16429</v>
       </c>
       <c r="CP67" t="n">
-        <v>-1000</v>
+        <v>-20406</v>
       </c>
       <c r="CQ67" t="n">
-        <v>-2000</v>
+        <v>-26399</v>
       </c>
     </row>
     <row r="68">
@@ -20197,34 +20217,34 @@
         <v>2037</v>
       </c>
       <c r="CH68" t="n">
-        <v>-213000</v>
+        <v>2388</v>
       </c>
       <c r="CI68" t="n">
-        <v>-266000</v>
+        <v>1876</v>
       </c>
       <c r="CJ68" t="n">
-        <v>-330000</v>
+        <v>2805</v>
       </c>
       <c r="CK68" t="n">
-        <v>-400000</v>
+        <v>-133</v>
       </c>
       <c r="CL68" t="n">
-        <v>-741000</v>
+        <v>-2195</v>
       </c>
       <c r="CM68" t="n">
-        <v>-789999.936</v>
+        <v>682</v>
       </c>
       <c r="CN68" t="n">
-        <v>-756000</v>
+        <v>-506</v>
       </c>
       <c r="CO68" t="n">
-        <v>-778000</v>
+        <v>-262</v>
       </c>
       <c r="CP68" t="n">
-        <v>-586000</v>
+        <v>8713</v>
       </c>
       <c r="CQ68" t="n">
-        <v>-758000.128</v>
+        <v>10284</v>
       </c>
     </row>
     <row r="69">
@@ -20479,36 +20499,16 @@
         <v>17872</v>
       </c>
       <c r="CG69" t="inlineStr"/>
-      <c r="CH69" t="n">
-        <v>34000</v>
-      </c>
-      <c r="CI69" t="n">
-        <v>365000.064</v>
-      </c>
-      <c r="CJ69" t="n">
-        <v>1094000</v>
-      </c>
-      <c r="CK69" t="n">
-        <v>318000</v>
-      </c>
-      <c r="CL69" t="n">
-        <v>218000</v>
-      </c>
-      <c r="CM69" t="n">
-        <v>430999.936</v>
-      </c>
-      <c r="CN69" t="n">
-        <v>569000</v>
-      </c>
-      <c r="CO69" t="n">
-        <v>535000</v>
-      </c>
-      <c r="CP69" t="n">
-        <v>248000</v>
-      </c>
-      <c r="CQ69" t="n">
-        <v>271000.064</v>
-      </c>
+      <c r="CH69" t="inlineStr"/>
+      <c r="CI69" t="inlineStr"/>
+      <c r="CJ69" t="inlineStr"/>
+      <c r="CK69" t="inlineStr"/>
+      <c r="CL69" t="inlineStr"/>
+      <c r="CM69" t="inlineStr"/>
+      <c r="CN69" t="inlineStr"/>
+      <c r="CO69" t="inlineStr"/>
+      <c r="CP69" t="inlineStr"/>
+      <c r="CQ69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -20762,36 +20762,16 @@
         <v>155</v>
       </c>
       <c r="CG70" t="inlineStr"/>
-      <c r="CH70" t="n">
-        <v>-247000</v>
-      </c>
-      <c r="CI70" t="n">
-        <v>-630999.936</v>
-      </c>
-      <c r="CJ70" t="n">
-        <v>-1424000</v>
-      </c>
-      <c r="CK70" t="n">
-        <v>-718000</v>
-      </c>
-      <c r="CL70" t="n">
-        <v>-959000</v>
-      </c>
-      <c r="CM70" t="n">
-        <v>-1220999.936</v>
-      </c>
-      <c r="CN70" t="n">
-        <v>-1324999.936</v>
-      </c>
-      <c r="CO70" t="n">
-        <v>-1312999.936</v>
-      </c>
-      <c r="CP70" t="n">
-        <v>-834000</v>
-      </c>
-      <c r="CQ70" t="n">
-        <v>-1029000.32</v>
-      </c>
+      <c r="CH70" t="inlineStr"/>
+      <c r="CI70" t="inlineStr"/>
+      <c r="CJ70" t="inlineStr"/>
+      <c r="CK70" t="inlineStr"/>
+      <c r="CL70" t="inlineStr"/>
+      <c r="CM70" t="inlineStr"/>
+      <c r="CN70" t="inlineStr"/>
+      <c r="CO70" t="inlineStr"/>
+      <c r="CP70" t="inlineStr"/>
+      <c r="CQ70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -21577,16 +21557,36 @@
       <c r="CG73" t="n">
         <v>22461</v>
       </c>
-      <c r="CH73" t="inlineStr"/>
-      <c r="CI73" t="inlineStr"/>
-      <c r="CJ73" t="inlineStr"/>
-      <c r="CK73" t="inlineStr"/>
-      <c r="CL73" t="inlineStr"/>
-      <c r="CM73" t="inlineStr"/>
-      <c r="CN73" t="inlineStr"/>
-      <c r="CO73" t="inlineStr"/>
-      <c r="CP73" t="inlineStr"/>
-      <c r="CQ73" t="inlineStr"/>
+      <c r="CH73" t="n">
+        <v>40077</v>
+      </c>
+      <c r="CI73" t="n">
+        <v>35292</v>
+      </c>
+      <c r="CJ73" t="n">
+        <v>23640</v>
+      </c>
+      <c r="CK73" t="n">
+        <v>20678</v>
+      </c>
+      <c r="CL73" t="n">
+        <v>10645</v>
+      </c>
+      <c r="CM73" t="n">
+        <v>20743</v>
+      </c>
+      <c r="CN73" t="n">
+        <v>7469</v>
+      </c>
+      <c r="CO73" t="n">
+        <v>7026</v>
+      </c>
+      <c r="CP73" t="n">
+        <v>18019</v>
+      </c>
+      <c r="CQ73" t="n">
+        <v>-8929</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -21847,34 +21847,34 @@
         <v>-3396</v>
       </c>
       <c r="CH74" t="n">
-        <v>954000</v>
+        <v>-15594</v>
       </c>
       <c r="CI74" t="n">
-        <v>1338999.808</v>
+        <v>28562</v>
       </c>
       <c r="CJ74" t="n">
-        <v>525000</v>
+        <v>-7181</v>
       </c>
       <c r="CK74" t="n">
-        <v>914000</v>
+        <v>-2329</v>
       </c>
       <c r="CL74" t="n">
-        <v>536000</v>
+        <v>-3508</v>
       </c>
       <c r="CM74" t="n">
-        <v>697000</v>
+        <v>-1868</v>
       </c>
       <c r="CN74" t="n">
-        <v>120000</v>
+        <v>-1786</v>
       </c>
       <c r="CO74" t="n">
-        <v>-9000</v>
+        <v>3051</v>
       </c>
       <c r="CP74" t="n">
-        <v>327000</v>
+        <v>-1904</v>
       </c>
       <c r="CQ74" t="n">
-        <v>-475000</v>
+        <v>11234</v>
       </c>
     </row>
     <row r="75">
@@ -22129,36 +22129,16 @@
         <v>37442</v>
       </c>
       <c r="CG75" t="inlineStr"/>
-      <c r="CH75" t="n">
-        <v>-322000</v>
-      </c>
-      <c r="CI75" t="n">
-        <v>-195000.064</v>
-      </c>
-      <c r="CJ75" t="n">
-        <v>-190000</v>
-      </c>
-      <c r="CK75" t="n">
-        <v>-224000</v>
-      </c>
-      <c r="CL75" t="n">
-        <v>-125000</v>
-      </c>
-      <c r="CM75" t="n">
-        <v>-92000</v>
-      </c>
-      <c r="CN75" t="n">
-        <v>-162000</v>
-      </c>
-      <c r="CO75" t="n">
-        <v>-110000</v>
-      </c>
-      <c r="CP75" t="n">
-        <v>-61000</v>
-      </c>
-      <c r="CQ75" t="n">
-        <v>-164000</v>
-      </c>
+      <c r="CH75" t="inlineStr"/>
+      <c r="CI75" t="inlineStr"/>
+      <c r="CJ75" t="inlineStr"/>
+      <c r="CK75" t="inlineStr"/>
+      <c r="CL75" t="inlineStr"/>
+      <c r="CM75" t="inlineStr"/>
+      <c r="CN75" t="inlineStr"/>
+      <c r="CO75" t="inlineStr"/>
+      <c r="CP75" t="inlineStr"/>
+      <c r="CQ75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -22419,34 +22399,34 @@
         <v>-1748</v>
       </c>
       <c r="CH76" t="n">
-        <v>48000</v>
+        <v>-1580</v>
       </c>
       <c r="CI76" t="n">
-        <v>-35000</v>
+        <v>-1379</v>
       </c>
       <c r="CJ76" t="n">
-        <v>71000</v>
+        <v>-2395</v>
       </c>
       <c r="CK76" t="n">
-        <v>0</v>
+        <v>-4507</v>
       </c>
       <c r="CL76" t="n">
-        <v>-50000</v>
+        <v>-3770</v>
       </c>
       <c r="CM76" t="n">
-        <v>-64000</v>
+        <v>-4178</v>
       </c>
       <c r="CN76" t="n">
-        <v>-70000</v>
+        <v>-3506</v>
       </c>
       <c r="CO76" t="n">
-        <v>-84000</v>
+        <v>-4177</v>
       </c>
       <c r="CP76" t="n">
-        <v>-72000</v>
+        <v>-3840</v>
       </c>
       <c r="CQ76" t="n">
-        <v>121000</v>
+        <v>-4285</v>
       </c>
     </row>
     <row r="77">
@@ -23072,34 +23052,34 @@
         <v>17317</v>
       </c>
       <c r="CH79" t="n">
-        <v>-42000</v>
+        <v>22903</v>
       </c>
       <c r="CI79" t="n">
-        <v>-92000</v>
+        <v>25033</v>
       </c>
       <c r="CJ79" t="n">
-        <v>-36000</v>
+        <v>14064</v>
       </c>
       <c r="CK79" t="n">
-        <v>-70000</v>
+        <v>13842</v>
       </c>
       <c r="CL79" t="n">
-        <v>-38000</v>
+        <v>3367</v>
       </c>
       <c r="CM79" t="n">
-        <v>-115000</v>
+        <v>14697</v>
       </c>
       <c r="CN79" t="n">
-        <v>-1000</v>
+        <v>2177</v>
       </c>
       <c r="CO79" t="n">
-        <v>-46000</v>
+        <v>5900</v>
       </c>
       <c r="CP79" t="n">
-        <v>-62000</v>
+        <v>12275</v>
       </c>
       <c r="CQ79" t="n">
-        <v>-47000</v>
+        <v>-1980</v>
       </c>
     </row>
   </sheetData>
